--- a/The game is liar/Assets/Files/Game_Dialogues.xlsx
+++ b/The game is liar/Assets/Files/Game_Dialogues.xlsx
@@ -164,7 +164,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
